--- a/data/markers_for_extract/transmissibility.xlsx
+++ b/data/markers_for_extract/transmissibility.xlsx
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="339" uniqueCount="226">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="331" uniqueCount="223">
   <si>
     <t>Protein Type</t>
   </si>
@@ -56,7 +56,7 @@
     <t>292I</t>
   </si>
   <si>
-    <t xml:space="preserve">Three amino acid mutations-V292I and K627E in PB2 and D156E in M1-independently abolished the transmission of the AH/1 virus. </t>
+    <t>Three amino acid mutations-V292I and K627E in PB2 and D156E in M1-independently abolished the transmission of the AH/1 virus.</t>
   </si>
   <si>
     <t>627E</t>
@@ -89,10 +89,10 @@
     <t>292&amp;389&amp;588&amp;598&amp;648&amp;676VKVMVM</t>
   </si>
   <si>
-    <t xml:space="preserve">The combined mutations of PB2-F6 (including PB2-I292V, PB2-R389K, PB2-A588V, PB2-T598M, PB2-L648V, and PB2-T676M) obtained higher adaptability of AIVs in avians and mammals than that of the single mutation of PB2-A588V, which suggested that the PB2 588 site is a key co-adaptation site and that synergies with other mutation sites can further enhance this co-adaptability. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">309N </t>
+    <t>The combined mutations of PB2-F6 (including PB2-I292V, PB2-R389K, PB2-A588V, PB2-T598M, PB2-L648V, and PB2-T676M) obtained higher adaptability of AIVs in avians and mammals than that of the single mutation of PB2-A588V, which suggested that the PB2 588 site is a key co-adaptation site and that synergies with other mutation sites can further enhance this co-adaptability.</t>
+  </si>
+  <si>
+    <t>309N</t>
   </si>
   <si>
     <t>The PB2D309N and HAL425M substitutions enabled direct contact transmission of rH1N1 in guinea pigs.</t>
@@ -140,7 +140,7 @@
     <t>319Q</t>
   </si>
   <si>
-    <t xml:space="preserve">Our results demonstrated that L319Q substitution in the pH1N1 PB1 alone or in combination with the mutations of the U.S. MDV resulted in reduced pathogenicity (ferrets) and transmission (guinea pigs), and an enhanced temperature sensitive phenotype. </t>
+    <t>Our results demonstrated that L319Q substitution in the pH1N1 PB1 alone or in combination with the mutations of the U.S. MDV resulted in reduced pathogenicity (ferrets) and transmission (guinea pigs), and an enhanced temperature sensitive phenotype.</t>
   </si>
   <si>
     <t>PA-X</t>
@@ -182,7 +182,7 @@
     <t>38[TM]</t>
   </si>
   <si>
-    <t xml:space="preserve"> Despite variable fitness consequences in vitro, all 38T/M viruses disseminated to naive ferrets by contact and airborne transmission, while 38F-containing A(H3N2) and B viruses failed to transmit via the airborne route. </t>
+    <t>Despite variable fitness consequences in vitro, all 38T/M viruses disseminated to naive ferrets by contact and airborne transmission, while 38F-containing A(H3N2) and B viruses failed to transmit via the airborne route.</t>
   </si>
   <si>
     <t>38F</t>
@@ -191,7 +191,7 @@
     <t>552S</t>
   </si>
   <si>
-    <t xml:space="preserve"> Thus, the PA T552S mutation selectively enhanced the activity of an impaired avian polymerase in human cells, raising the possibility that mutations in PA are sufficient to overcome this barrier to cross-species transmission.</t>
+    <t>Thus, the PA T552S mutation selectively enhanced the activity of an impaired avian polymerase in human cells, raising the possibility that mutations in PA are sufficient to overcome this barrier to cross-species transmission.</t>
   </si>
   <si>
     <t>NS1</t>
@@ -224,7 +224,7 @@
     <t>346S</t>
   </si>
   <si>
-    <t xml:space="preserve">NPF346S and M1V166M substitutions each conferred transmissibility, as did the NPF346S/M1V166M double mutant (Fig. 6B to ​toD).D). Single mutants also conferred more rapid and robust growth kinetics relative to PR8WT virus (P &lt; 0.01) but were not clearly distinguishable from the double mutant by this measure </t>
+    <t>NPF346S and M1V166M substitutions each conferred transmissibility, as did the NPF346S/M1V166M double mutant (Fig. 6B to ​toD).D). Single mutants also conferred more rapid and robust growth kinetics relative to PR8WT virus (P &lt; 0.01) but were not clearly distinguishable from the double mutant by this measure</t>
   </si>
   <si>
     <t>351K</t>
@@ -266,7 +266,7 @@
     <t>292K</t>
   </si>
   <si>
-    <t xml:space="preserve"> The NA defect caused by the R292K mutation was associated with compromised growth and transmissibility in ferrets.</t>
+    <t>The NA defect caused by the R292K mutation was associated with compromised growth and transmissibility in ferrets.</t>
   </si>
   <si>
     <t>222&amp;119VV</t>
@@ -284,7 +284,7 @@
     <t>368&amp;370&amp;313&amp;381ELKD</t>
   </si>
   <si>
-    <t xml:space="preserve">four amino acid mutations (D368E, S370L, E313K and G381D) within the head region of the SD01 NA, reduced virus replication in the respiratory tract of chickens, reduced virus NA activity, and resulted in a loss of airborne transmission ability in chickens. Similarly, reverse mutations of these four amino acids in the NA protein of r01/NASS virus, conferred an airborne transmission ability to the recombinant virus. </t>
+    <t>four amino acid mutations (D368E, S370L, E313K and G381D) within the head region of the SD01 NA, reduced virus replication in the respiratory tract of chickens, reduced virus NA activity, and resulted in a loss of airborne transmission ability in chickens. Similarly, reverse mutations of these four amino acids in the NA protein of r01/NASS virus, conferred an airborne transmission ability to the recombinant virus.</t>
   </si>
   <si>
     <t>N1</t>
@@ -323,13 +323,13 @@
     <t>247&amp;275NY</t>
   </si>
   <si>
-    <t xml:space="preserve">the double mutant Cal09-S247N+H275Y showed a statistically significant decrease in transmission efficiency relative to Cal09-wt (P &lt; 0.05 by Fisher's exact test), suggesting that transmission is attenuated as a consequence of its high oseltamivir resistance phenotype. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">275&amp;436YN </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Further, I436N alone did not have an appreciable impact on viral replication in the upper respiratory tract or transmissibility in ferrets. However, the rg-H275Y-I436N double mutant transmitted less efficiently than either single mutant via the direct contact and respiratory droplet routes in ferrets.</t>
+    <t>the double mutant Cal09-S247N+H275Y showed a statistically significant decrease in transmission efficiency relative to Cal09-wt (P &lt; 0.05 by Fisher's exact test), suggesting that transmission is attenuated as a consequence of its high oseltamivir resistance phenotype.</t>
+  </si>
+  <si>
+    <t>275&amp;436YN</t>
+  </si>
+  <si>
+    <t>Further, I436N alone did not have an appreciable impact on viral replication in the upper respiratory tract or transmissibility in ferrets. However, the rg-H275Y-I436N double mutant transmitted less efficiently than either single mutant via the direct contact and respiratory droplet routes in ferrets.</t>
   </si>
   <si>
     <t>M2</t>
@@ -347,7 +347,7 @@
     <t>156E</t>
   </si>
   <si>
-    <t xml:space="preserve"> In this study, we found that the amino acid 156D of M1 is critical for H7N9 virus transmission, since the single amino acid mutation of D156E in M1 abolished the transmission of the AH/1 virus in guinea pigs. </t>
+    <t>In this study, we found that the amino acid 156D of M1 is critical for H7N9 virus transmission, since the single amino acid mutation of D156E in M1 abolished the transmission of the AH/1 virus in guinea pigs.</t>
   </si>
   <si>
     <t>166M</t>
@@ -377,7 +377,7 @@
     <t>189A</t>
   </si>
   <si>
-    <t xml:space="preserve">The fact that the Thr-189→Ala mutation is needed for respiratory droplet transmission highlights the role of improving human receptor specificity in the context of other genes in a reassorted virus in conferring airborne transmissibility. </t>
+    <t>The fact that the Thr-189→Ala mutation is needed for respiratory droplet transmission highlights the role of improving human receptor specificity in the context of other genes in a reassorted virus in conferring airborne transmissibility.</t>
   </si>
   <si>
     <t>227P</t>
@@ -401,7 +401,7 @@
     <t>190V</t>
   </si>
   <si>
-    <t xml:space="preserve"> Furthermore, position 190 of HA might be the key for the interspecies transmission of AIVs from ducks to chickens.</t>
+    <t>Furthermore, position 190 of HA might be the key for the interspecies transmission of AIVs from ducks to chickens.</t>
   </si>
   <si>
     <t>H5</t>
@@ -413,16 +413,13 @@
     <t>The T160A substitution resulted in the loss of a glycosylation site at 158N and led not only to enhanced binding specificity for human-type receptors but also transmissibility among guinea pigs</t>
   </si>
   <si>
-    <t>https://europepmc.org/articles/PMC2812356/table/t6/</t>
-  </si>
-  <si>
     <t>154&amp;221&amp;222&amp;315DKLI</t>
   </si>
   <si>
-    <t xml:space="preserve">Human-virus-characteristic amino acids in these seven segments may have critically contributed to the respiratory droplet transmission of the HA(N158D/N224K/Q226L/T318I)/CA04 virus in ferrets. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">222&amp;220LK </t>
+    <t>Human-virus-characteristic amino acids in these seven segments may have critically contributed to the respiratory droplet transmission of the HA(N158D/N224K/Q226L/T318I)/CA04 virus in ferrets.</t>
+  </si>
+  <si>
+    <t>222&amp;220LK</t>
   </si>
   <si>
     <t>This HA-Q222L/N220K double substitution has been associated with airborne transmission of a virus carrying an avian A/H5.</t>
@@ -446,19 +443,19 @@
     <t>HA2-582I</t>
   </si>
   <si>
-    <t xml:space="preserve">Five days p.i., the K582I virus was detected in one inoculated bird and one contact bird, showing that its fitness and transmissibility were lower than that of the wild-type virus. </t>
+    <t>Five days p.i., the K582I virus was detected in one inoculated bird and one contact bird, showing that its fitness and transmissibility were lower than that of the wild-type virus.</t>
   </si>
   <si>
     <t>231H</t>
   </si>
   <si>
-    <t xml:space="preserve">The Y231H virus was not detected in any contact birds throughout the experiment, showing that the mutation results in attenuated transmission compared to that of the wild-type virus. </t>
+    <t>The Y231H virus was not detected in any contact birds throughout the experiment, showing that the mutation results in attenuated transmission compared to that of the wild-type virus.</t>
   </si>
   <si>
     <t>HA2-1142K</t>
   </si>
   <si>
-    <t xml:space="preserve">In all cases, the N1142K mutation had reverted to the wild-type N1142, as it had after serial passage in eggs (Table ​(Table1).1). This reversion offers the most plausible explanation for the increased transmissibility and pathogenicity in contact birds in the N1142K group. </t>
+    <t>In all cases, the N1142K mutation had reverted to the wild-type N1142, as it had after serial passage in eggs (Table ​(Table1).1). This reversion offers the most plausible explanation for the increased transmissibility and pathogenicity in contact birds in the N1142K group.</t>
   </si>
   <si>
     <t>103Y</t>
@@ -470,9 +467,6 @@
     <t>The amino acid A160T mutation in the HA protein of the AIV BHGQH/3 altered its receptor-binding preference and abolished its transmission in guinea pigs.</t>
   </si>
   <si>
-    <t>increase</t>
-  </si>
-  <si>
     <t>H3</t>
   </si>
   <si>
@@ -506,13 +500,13 @@
     <t>RCP10 (A189, G192) contains the adaptive change of alanine at HA1 189 and the avian glycine at HA2 192 while RCP10 (T189, R192) contains the avian threonine at HA1 189 and adaptive arginine at HA2 192. Our transmission studies suggest that both mutations in HA are necessary for respiratory droplet transmission of the avian–human H9N2 reassortant viruses.(H9)</t>
   </si>
   <si>
-    <t xml:space="preserve">158&amp;224&amp;226&amp;318DKLI </t>
+    <t>158&amp;224&amp;226&amp;318DKLI</t>
   </si>
   <si>
     <t>A laboratory-generated reassortant H5 hemagglutinin (HA)/influenza A(H1N1) strain containing the mutations N158D, N224K, Q226L, and T318I (hereafter, H3 numbering is used) in the HA of A/Vietnam/1203/2004(H5N1, clade 1) could be transmitted among ferrets via aerosol or respiratory droplets, suggesting that these 4 HA mutations contribute to the acquisition of airborne transmissibility by influenza A(H5N1) among mammals</t>
   </si>
   <si>
-    <t xml:space="preserve"> Taken together, these results suggest that the addition of the T318I mutation to H5 HAs that preferentially recognize human-type receptors restores HA protein stability, thereby allowing a virus carrying the N158D/N224K/Q226L/T318I mutations in HA to transmit efficiently via respiratory droplet among ferrets. (H3 numbering)</t>
+    <t>Taken together, these results suggest that the addition of the T318I mutation to H5 HAs that preferentially recognize human-type receptors restores HA protein stability, thereby allowing a virus carrying the N158D/N224K/Q226L/T318I mutations in HA to transmit efficiently via respiratory droplet among ferrets. (H3 numbering)</t>
   </si>
   <si>
     <t>Mutations in the HA head at positions 78 and 212 of A/Perth/16/2009 (H3N2), which were selected after cell culture adaptation, decrease the acid stability of the virus from a pH of 5.5 (WT) to 5.8 (mutant). In addition, we observed that this mutant H3N2 virus replicated to higher titers in cell culture but had reduced airborne transmission in the ferret model.</t>
@@ -521,10 +515,10 @@
     <t>H2</t>
   </si>
   <si>
-    <t xml:space="preserve">221&amp;223LG </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> A unique transmission event with the ElSalv/57 virus occurred which produced a 226L/228G H2N2 natural variant virus that displayed an increase in binding specificity to alpha 2,6 glycan receptors and enhanced respiratory droplet transmissibility in ferrets.</t>
+    <t>221&amp;223LG</t>
+  </si>
+  <si>
+    <t>A unique transmission event with the ElSalv/57 virus occurred which produced a 226L/228G H2N2 natural variant virus that displayed an increase in binding specificity to alpha 2,6 glycan receptors and enhanced respiratory droplet transmissibility in ferrets.</t>
   </si>
   <si>
     <t>155D</t>
@@ -557,7 +551,7 @@
     <t>17H</t>
   </si>
   <si>
-    <t xml:space="preserve">A loss-of-function pH1N1 virus with a destabilizing HA1-Y17H mutation (pH 6.0) was less pathogenic in mice and ferrets, less transmissible by contact, and no longer airborne-transmissible. </t>
+    <t>A loss-of-function pH1N1 virus with a destabilizing HA1-Y17H mutation (pH 6.0) was less pathogenic in mice and ferrets, less transmissible by contact, and no longer airborne-transmissible.</t>
   </si>
   <si>
     <t>H1-17Y&amp;HA2-106K</t>
@@ -566,7 +560,7 @@
     <t>A ferret-adapted revertant (HA1-H17Y/HA2-R106K) regained airborne transmissibility by stabilizing HA to an activation pH of 5.3, similar to that of human-adapted isolates from late 2009–2014.</t>
   </si>
   <si>
-    <t xml:space="preserve"> 240&amp;31RN</t>
+    <t>240&amp;31RN</t>
   </si>
   <si>
     <t>A Q240R and S31N substitution among others were detected in the haemagglutinin and matrix genes, respectively, indicating potentials for mutations during interspecies co-mingling and transmission.</t>
@@ -578,13 +572,10 @@
     <t>The proportion of plaques with the pH stable E21K genotype was again significantly increased on plate 1 (55%, p&lt;0.0001) and plate 2 (46%, p = 0.02) compared to the proportion in the inoculum (13%) supporting the hypothesis that HA stability can enhance the ability of virus to remain infectious in airborne droplets.</t>
   </si>
   <si>
-    <t>F</t>
-  </si>
-  <si>
     <t>187&amp;211&amp;289EEN</t>
   </si>
   <si>
-    <t xml:space="preserve">The five consensus mutations are responsible for the enhanced virulence, and that the HA mutations (D187E, K211E, and S289N) in the L2 virus are linked to effective airborne transmission in ferrets. </t>
+    <t>The five consensus mutations are responsible for the enhanced virulence, and that the HA mutations (D187E, K211E, and S289N) in the L2 virus are linked to effective airborne transmission in ferrets.</t>
   </si>
   <si>
     <t>388V</t>
@@ -602,7 +593,7 @@
     <t>147K</t>
   </si>
   <si>
-    <t xml:space="preserve"> By in vitro and in vivo analyses using mutant viruses, we also found that the polymorphism at HA residue 147 compensated for the loss of replication, virulence, and transmissibility associated with the presence of the N-linked glycans. </t>
+    <t>By in vitro and in vivo analyses using mutant viruses, we also found that the polymorphism at HA residue 147 compensated for the loss of replication, virulence, and transmissibility associated with the presence of the N-linked glycans.</t>
   </si>
   <si>
     <t>425M</t>
@@ -626,7 +617,7 @@
     <t>combination</t>
   </si>
   <si>
-    <t xml:space="preserve">H9-363K&amp;PA-672L </t>
+    <t>H9-363K&amp;PA-672L</t>
   </si>
   <si>
     <t>The HA-363K and PA-672L enabled H9N2 airborne transmission among chickens.Residue 363K in HA and 672L in PA are critical for airborne transmission in other prevalent H9N2 viruses.</t>
@@ -644,7 +635,7 @@
     <t>24&amp;158QA</t>
   </si>
   <si>
-    <t xml:space="preserve"> H5 H24Q substitution decreased pH of fusion to promote efficient transmission in ferrets when coupled with receptor binding changes and a loss of an N-linked glycan at residue 158.</t>
+    <t>H5 H24Q substitution decreased pH of fusion to promote efficient transmission in ferrets when coupled with receptor binding changes and a loss of an N-linked glycan at residue 158.</t>
   </si>
   <si>
     <t>PA-653L&amp;PB1-229R</t>
@@ -671,7 +662,7 @@
     <t>H3-225G&amp;N2-315N</t>
   </si>
   <si>
-    <t xml:space="preserve">Reverse-genetics studies further indicated that the HA(225G) and NA(315N) substitutions contributed to enhance transmissibility in ferrets and virulence in mice. </t>
+    <t>Reverse-genetics studies further indicated that the HA(225G) and NA(315N) substitutions contributed to enhance transmissibility in ferrets and virulence in mice.</t>
   </si>
   <si>
     <t>PA-581M&amp;NP-100I&amp;NP-373T&amp;H1-202T&amp;N1-248D&amp;NS1-123V</t>
@@ -689,7 +680,7 @@
     <t>NS1-205K&amp;NS2-48N</t>
   </si>
   <si>
-    <t xml:space="preserve">These results indicated that PB1 A469T, combined NS1 N205K and NEP T48N single-site mutations in the parental rH1N1 virus, conferred enhanced in-contact transmissibility in guinea pigs. </t>
+    <t>These results indicated that PB1 A469T, combined NS1 N205K and NEP T48N single-site mutations in the parental rH1N1 virus, conferred enhanced in-contact transmissibility in guinea pigs.</t>
   </si>
   <si>
     <t>HA2-46E&amp;M1-211R</t>
@@ -701,13 +692,13 @@
     <t>38&amp;40&amp;57&amp;246&amp;300&amp;345RSVYVI</t>
   </si>
   <si>
-    <t xml:space="preserve"> The NA gene of the CK/S1053 virus weakened the transmissibility of the AH/1 virus</t>
+    <t>The NA gene of the CK/S1053 virus weakened the transmissibility of the AH/1 virus</t>
   </si>
   <si>
     <t>These results also suggest that the amino acids 292I and 627E of PB2 are the key factors that limited the transmission of SH/2 and PG/S1421, respectively, whereas 627E of PB2 and 156E of M1 are the key factors that limited the transmission of CK/S1053 virus.</t>
   </si>
   <si>
-    <t xml:space="preserve">PB2-195N&amp;H9-227P&amp;NP-434K </t>
+    <t>PB2-195N&amp;H9-227P&amp;NP-434K</t>
   </si>
 </sst>
 </file>
@@ -1690,13 +1681,13 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:E111"/>
+  <dimension ref="A1:D111"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A103" workbookViewId="0">
-      <selection activeCell="B110" sqref="B110"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E1" sqref="E$1:E$1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.02654867256637" defaultRowHeight="13.85" outlineLevelCol="4"/>
+  <sheetFormatPr defaultColWidth="9.02654867256637" defaultRowHeight="13.85" outlineLevelCol="3"/>
   <cols>
     <col min="1" max="1" width="14.4070796460177" style="2" customWidth="1"/>
     <col min="2" max="2" width="29.4070796460177" style="2" customWidth="1"/>
@@ -2503,7 +2494,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="58" ht="83.25" spans="1:5">
+    <row r="58" ht="41.65" spans="1:4">
       <c r="A58" s="2" t="s">
         <v>124</v>
       </c>
@@ -2516,42 +2507,33 @@
       <c r="D58" s="4" t="s">
         <v>126</v>
       </c>
-      <c r="E58" s="2" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="59" ht="83.25" spans="1:5">
+    </row>
+    <row r="59" ht="41.65" spans="1:4">
       <c r="A59" s="2" t="s">
         <v>124</v>
       </c>
       <c r="B59" s="2" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C59" s="3">
         <v>22722205</v>
       </c>
       <c r="D59" s="4" t="s">
-        <v>129</v>
-      </c>
-      <c r="E59" s="2" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="60" ht="83.25" spans="1:5">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="60" ht="27.75" spans="1:4">
       <c r="A60" s="2" t="s">
         <v>124</v>
       </c>
       <c r="B60" s="2" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C60" s="3">
         <v>22722205</v>
       </c>
       <c r="D60" s="4" t="s">
-        <v>131</v>
-      </c>
-      <c r="E60" s="2" t="s">
-        <v>127</v>
+        <v>130</v>
       </c>
     </row>
     <row r="61" ht="41.65" spans="1:4">
@@ -2559,13 +2541,13 @@
         <v>124</v>
       </c>
       <c r="B61" s="2" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C61" s="3">
         <v>32231159</v>
       </c>
       <c r="D61" s="4" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="62" ht="83.25" spans="1:4">
@@ -2573,7 +2555,7 @@
         <v>124</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C62" s="3">
         <v>33268526</v>
@@ -2587,13 +2569,13 @@
         <v>124</v>
       </c>
       <c r="B63" s="2" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C63" s="3">
         <v>33268526</v>
       </c>
       <c r="D63" s="4" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
     </row>
     <row r="64" s="1" customFormat="1" ht="41.65" spans="1:4">
@@ -2601,13 +2583,13 @@
         <v>124</v>
       </c>
       <c r="B64" s="1" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C64" s="6">
         <v>19923184</v>
       </c>
       <c r="D64" s="7" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
     <row r="65" ht="41.65" spans="1:4">
@@ -2615,13 +2597,13 @@
         <v>124</v>
       </c>
       <c r="B65" s="2" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="C65" s="3">
         <v>19923184</v>
       </c>
       <c r="D65" s="4" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
     </row>
     <row r="66" s="1" customFormat="1" ht="55.5" spans="1:4">
@@ -2629,30 +2611,27 @@
         <v>124</v>
       </c>
       <c r="B66" s="1" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C66" s="6">
         <v>19923184</v>
       </c>
       <c r="D66" s="7" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="67" ht="111" spans="1:5">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="67" ht="111" spans="1:4">
       <c r="A67" s="2" t="s">
         <v>124</v>
       </c>
       <c r="B67" s="2" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="C67" s="3">
         <v>24725402</v>
       </c>
       <c r="D67" s="4" t="s">
         <v>28</v>
-      </c>
-      <c r="E67" s="2">
-        <v>1</v>
       </c>
     </row>
     <row r="68" ht="41.65" spans="1:4">
@@ -2660,16 +2639,16 @@
         <v>124</v>
       </c>
       <c r="B68" s="2" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="C68" s="3">
         <v>20041223</v>
       </c>
       <c r="D68" s="4" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="69" ht="111" spans="1:5">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="69" ht="111" spans="1:4">
       <c r="A69" s="2" t="s">
         <v>124</v>
       </c>
@@ -2682,319 +2661,307 @@
       <c r="D69" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="E69" s="2" t="s">
-        <v>146</v>
-      </c>
     </row>
     <row r="70" ht="41.65" spans="1:4">
       <c r="A70" s="2" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="B70" s="2" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="C70" s="3">
         <v>33919124</v>
       </c>
       <c r="D70" s="4" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
     </row>
     <row r="71" s="1" customFormat="1" ht="111" spans="1:4">
       <c r="A71" s="1" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="B71" s="1" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="C71" s="6">
         <v>23824818</v>
       </c>
       <c r="D71" s="7" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
     </row>
     <row r="72" s="1" customFormat="1" ht="41.65" spans="1:4">
       <c r="A72" s="1" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="B72" s="1" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="C72" s="6">
         <v>35127568</v>
       </c>
       <c r="D72" s="7" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
     </row>
     <row r="73" ht="55.5" spans="1:4">
       <c r="A73" s="2" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="B73" s="2" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="C73" s="3">
         <v>20140096</v>
       </c>
       <c r="D73" s="4" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
     </row>
     <row r="74" s="1" customFormat="1" ht="83.25" spans="1:4">
       <c r="A74" s="1" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="B74" s="1" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="C74" s="6">
         <v>19380727</v>
       </c>
       <c r="D74" s="7" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
     </row>
     <row r="75" ht="97.15" spans="1:4">
       <c r="A75" s="2" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="B75" s="2" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="C75" s="3">
         <v>23868877</v>
       </c>
       <c r="D75" s="4" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
     </row>
     <row r="76" ht="69.4" spans="1:4">
       <c r="A76" s="2" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="B76" s="2" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="C76" s="3">
         <v>22722205</v>
       </c>
       <c r="D76" s="4" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
     </row>
     <row r="77" ht="69.4" spans="1:4">
       <c r="A77" s="2" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="B77" s="2" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="C77" s="3">
         <v>33919124</v>
       </c>
       <c r="D77" s="4" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
     </row>
     <row r="78" s="1" customFormat="1" ht="55.5" spans="1:4">
       <c r="A78" s="1" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="B78" s="1" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="C78" s="6">
         <v>20574518</v>
       </c>
       <c r="D78" s="7" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
     </row>
     <row r="79" ht="27.75" spans="1:4">
       <c r="A79" s="2" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="B79" s="2" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="C79" s="3">
         <v>20826691</v>
       </c>
       <c r="D79" s="4" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
     </row>
     <row r="80" ht="27.75" spans="1:4">
       <c r="A80" s="2" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="B80" s="2" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="C80" s="3">
         <v>28814518</v>
       </c>
       <c r="D80" s="4" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
     </row>
     <row r="81" ht="41.65" spans="1:4">
       <c r="A81" s="2" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="B81" s="2" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="C81" s="3">
         <v>22740390</v>
       </c>
       <c r="D81" s="4" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
     </row>
     <row r="82" ht="69.4" spans="1:4">
       <c r="A82" s="2" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="B82" s="2" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="C82" s="3">
         <v>19211790</v>
       </c>
       <c r="D82" s="4" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
     </row>
     <row r="83" ht="41.65" spans="1:4">
       <c r="A83" s="2" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="B83" s="2" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="C83" s="3">
         <v>26811446</v>
       </c>
       <c r="D83" s="4" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
     </row>
     <row r="84" s="1" customFormat="1" ht="41.65" spans="1:4">
       <c r="A84" s="1" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="B84" s="1" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="C84" s="6">
         <v>26811446</v>
       </c>
       <c r="D84" s="7" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
     </row>
     <row r="85" ht="41.65" spans="1:4">
       <c r="A85" s="2" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="B85" s="2" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="C85" s="3">
         <v>31839904</v>
       </c>
       <c r="D85" s="4" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="86" ht="69.4" spans="1:5">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="86" ht="69.4" spans="1:4">
       <c r="A86" s="2" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="B86" s="2" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="C86" s="3">
         <v>32097448</v>
       </c>
       <c r="D86" s="4" t="s">
-        <v>181</v>
-      </c>
-      <c r="E86" s="2" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="87" ht="41.65" spans="1:5">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="87" ht="41.65" spans="1:4">
       <c r="A87" s="2" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="B87" s="2" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="C87" s="3">
         <v>25100840</v>
       </c>
       <c r="D87" s="4" t="s">
-        <v>184</v>
-      </c>
-      <c r="E87" s="2" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
     </row>
     <row r="88" ht="41.65" spans="1:4">
       <c r="A88" s="2" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="B88" s="2" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="C88" s="3">
         <v>32601336</v>
       </c>
       <c r="D88" s="4" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="89" ht="27.75" spans="1:5">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="89" ht="27.75" spans="1:4">
       <c r="A89" s="2" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="B89" s="2" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="C89" s="3">
         <v>20809098</v>
       </c>
       <c r="D89" s="4" t="s">
-        <v>188</v>
-      </c>
-      <c r="E89" s="2" t="s">
-        <v>182</v>
+        <v>185</v>
       </c>
     </row>
     <row r="90" ht="55.5" spans="1:4">
       <c r="A90" s="2" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="B90" s="2" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="C90" s="3">
         <v>23637398</v>
       </c>
       <c r="D90" s="4" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
     </row>
     <row r="91" ht="27.75" spans="1:4">
       <c r="A91" s="2" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="B91" s="2" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="C91" s="3">
         <v>34963076</v>
@@ -3005,86 +2972,86 @@
     </row>
     <row r="92" ht="111" spans="1:4">
       <c r="A92" s="2" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="B92" s="2" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="C92" s="3">
         <v>25135885</v>
       </c>
       <c r="D92" s="4" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
     </row>
     <row r="93" ht="27.75" spans="1:4">
       <c r="A93" s="2" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="B93" s="2" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="C93" s="3">
         <v>25100840</v>
       </c>
       <c r="D93" s="4" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
     </row>
     <row r="94" ht="27.75" spans="1:4">
       <c r="A94" s="2" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="B94" s="2" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="C94" s="3">
         <v>21407805</v>
       </c>
       <c r="D94" s="4" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
     </row>
     <row r="95" s="1" customFormat="1" ht="41.65" spans="1:4">
       <c r="A95" s="1" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="B95" s="1" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="C95" s="6">
         <v>24920791</v>
       </c>
       <c r="D95" s="7" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
     </row>
     <row r="96" ht="55.5" spans="1:4">
       <c r="A96" s="1" t="s">
+        <v>194</v>
+      </c>
+      <c r="B96" s="1" t="s">
         <v>197</v>
-      </c>
-      <c r="B96" s="1" t="s">
-        <v>200</v>
       </c>
       <c r="C96" s="6">
         <v>26552719</v>
       </c>
       <c r="D96" s="7" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
     </row>
     <row r="97" ht="55.5" spans="1:4">
       <c r="A97" s="1" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="B97" s="1" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="C97" s="6">
         <v>26552719</v>
       </c>
       <c r="D97" s="7" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
     </row>
     <row r="98" ht="41.65" spans="1:4">
@@ -3092,35 +3059,35 @@
         <v>124</v>
       </c>
       <c r="B98" s="2" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="C98" s="3">
         <v>23486663</v>
       </c>
       <c r="D98" s="4" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
     </row>
     <row r="99" ht="27.75" spans="1:4">
       <c r="A99" s="2" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="B99" s="2" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="C99" s="3">
         <v>34061908</v>
       </c>
       <c r="D99" s="4" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
     </row>
     <row r="100" s="1" customFormat="1" ht="55.5" spans="1:4">
       <c r="A100" s="1" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="B100" s="1" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="C100" s="6">
         <v>22740390</v>
@@ -3129,105 +3096,102 @@
         <v>11</v>
       </c>
     </row>
-    <row r="101" ht="27.75" spans="1:5">
+    <row r="101" ht="27.75" spans="1:4">
       <c r="A101" s="2" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="B101" s="2" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="C101" s="3">
         <v>34164347</v>
       </c>
       <c r="D101" s="4" t="s">
-        <v>209</v>
-      </c>
-      <c r="E101" s="2" t="s">
-        <v>182</v>
+        <v>206</v>
       </c>
     </row>
     <row r="102" s="1" customFormat="1" ht="55.5" spans="1:4">
       <c r="A102" s="1" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="B102" s="1" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="C102" s="6">
         <v>31503518</v>
       </c>
       <c r="D102" s="7" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
     </row>
     <row r="103" ht="41.65" spans="1:4">
       <c r="A103" s="2" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="B103" s="2" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="C103" s="3">
         <v>23019374</v>
       </c>
       <c r="D103" s="4" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
     </row>
     <row r="104" ht="69.4" spans="1:4">
       <c r="A104" s="2" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="B104" s="2" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="C104" s="3">
         <v>27339001</v>
       </c>
       <c r="D104" s="4" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
     </row>
     <row r="105" ht="55.5" spans="1:4">
       <c r="A105" s="2" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="B105" s="2" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="C105" s="3">
         <v>36103978</v>
       </c>
       <c r="D105" s="4" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
     </row>
     <row r="106" ht="41.65" spans="1:4">
       <c r="A106" s="2" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="B106" s="2" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="C106" s="3">
         <v>25100840</v>
       </c>
       <c r="D106" s="4" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
     </row>
     <row r="107" s="1" customFormat="1" ht="55.5" spans="1:4">
       <c r="A107" s="1" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="B107" s="1" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="C107" s="6">
         <v>26552719</v>
       </c>
       <c r="D107" s="7" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
     </row>
     <row r="108" ht="27.75" spans="1:4">
@@ -3235,13 +3199,13 @@
         <v>71</v>
       </c>
       <c r="B108" s="2" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="C108" s="3">
         <v>31597771</v>
       </c>
       <c r="D108" s="4" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
     </row>
     <row r="109" ht="55.5" spans="1:4">
@@ -3255,24 +3219,24 @@
         <v>31597771</v>
       </c>
       <c r="D109" s="4" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
     </row>
     <row r="110" s="1" customFormat="1" ht="55.5" spans="1:4">
       <c r="A110" s="1" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="B110" s="1" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="C110" s="6">
         <v>26552719</v>
       </c>
       <c r="D110" s="7" t="s">
-        <v>221</v>
-      </c>
-    </row>
-    <row r="111" ht="13.5" spans="1:4">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="111" spans="1:4">
       <c r="A111"/>
       <c r="B111"/>
       <c r="C111"/>
